--- a/Трататаинский Timeline.xlsx
+++ b/Трататаинский Timeline.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="48">
   <si>
     <t>Приход 20 летнего Шайлате к власти</t>
   </si>
@@ -84,9 +84,6 @@
     <t>возвращение Тары из отстранения</t>
   </si>
   <si>
-    <t>342 убийство Демерой Восточного Шанхая</t>
-  </si>
-  <si>
     <t>346 освоение горы Ракара\Хадем получил имя Фетесу</t>
   </si>
   <si>
@@ -114,9 +111,6 @@
     <t>373 основание королевства Гарланов</t>
   </si>
   <si>
-    <t>374 прибытие 5 тысяч Трататаинце к Гарланам</t>
-  </si>
-  <si>
     <t>378 завоевание Гарланами 1/50 Момлии</t>
   </si>
   <si>
@@ -157,6 +151,15 @@
   </si>
   <si>
     <t>584 нападение на Райрабатав Империями</t>
+  </si>
+  <si>
+    <t>распространение топоров</t>
+  </si>
+  <si>
+    <t>342 начало реформации Демеры</t>
+  </si>
+  <si>
+    <t>374 прибытие Трататаинце к Гарланам</t>
   </si>
 </sst>
 </file>
@@ -618,7 +621,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:S22"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="K1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="L9" sqref="L9"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
@@ -651,13 +656,13 @@
         <v>10</v>
       </c>
       <c r="I2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="K2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="M2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="3" spans="1:19">
@@ -680,7 +685,7 @@
         <v>20</v>
       </c>
       <c r="J4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="5" spans="1:19">
@@ -692,10 +697,10 @@
         <v>19</v>
       </c>
       <c r="M5" t="s">
-        <v>32</v>
+        <v>47</v>
       </c>
       <c r="O5" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="6" spans="1:19">
@@ -710,7 +715,7 @@
         <v>16</v>
       </c>
       <c r="M6" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="7" spans="1:19">
@@ -719,10 +724,10 @@
         <v>13</v>
       </c>
       <c r="M7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="S7" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="8" spans="1:19">
@@ -731,13 +736,13 @@
         <v>4</v>
       </c>
       <c r="J8" t="s">
-        <v>22</v>
+        <v>46</v>
       </c>
       <c r="K8" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="S8" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="9" spans="1:19">
@@ -751,7 +756,7 @@
         <v>3</v>
       </c>
       <c r="K9" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="10" spans="1:19">
@@ -763,7 +768,9 @@
       <c r="D10" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="E10" s="11"/>
+      <c r="E10" s="11" t="s">
+        <v>45</v>
+      </c>
       <c r="F10" s="9"/>
       <c r="G10" s="1"/>
       <c r="H10" s="1" t="s">
@@ -774,7 +781,7 @@
         <v>21</v>
       </c>
       <c r="K10" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="L10" s="1"/>
       <c r="M10" s="1"/>
@@ -861,7 +868,7 @@
       <c r="N12" s="7"/>
       <c r="O12" s="7"/>
       <c r="P12" s="7" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="Q12" s="7"/>
       <c r="R12" s="7"/>
@@ -869,39 +876,39 @@
     </row>
     <row r="14" spans="1:19">
       <c r="L14" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="15" spans="1:19">
       <c r="B15" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="P15" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="17" spans="1:19">
       <c r="N17" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="O17" s="8" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="18" spans="1:19">
       <c r="J18" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="20" spans="1:19">
       <c r="K20" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="N20" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="Q20" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="21" spans="1:19">
@@ -916,7 +923,7 @@
       <c r="I21" s="1"/>
       <c r="J21" s="1"/>
       <c r="K21" s="1" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="L21" s="1"/>
       <c r="M21" s="1"/>

--- a/Трататаинский Timeline.xlsx
+++ b/Трататаинский Timeline.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="46">
   <si>
     <t>Приход 20 летнего Шайлате к власти</t>
   </si>
@@ -39,9 +39,6 @@
     <t>21 июня 305 разгром армии Меме шаропланом</t>
   </si>
   <si>
-    <t>27 января 306 капитуляция Момлянских владений в трататании</t>
-  </si>
-  <si>
     <t>298 основание культа братьев Манду Рореалом</t>
   </si>
   <si>
@@ -49,9 +46,6 @@
   </si>
   <si>
     <t>307 переименование Столицы в Карманду</t>
-  </si>
-  <si>
-    <t>конец зимы 306 начало строительства "Великих Тунеллей"</t>
   </si>
   <si>
     <t>284 рождение Шаюлыня</t>
@@ -621,8 +615,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:S22"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="K1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="L9" sqref="L9"/>
+    <sheetView tabSelected="1" topLeftCell="N1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="Q19" sqref="Q19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -645,47 +639,43 @@
     <row r="1" spans="1:19">
       <c r="E1" s="10"/>
       <c r="F1" s="8" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="2" spans="1:19">
       <c r="E2" s="10" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F2" s="8" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="I2" t="s">
+        <v>23</v>
+      </c>
+      <c r="K2" t="s">
         <v>25</v>
       </c>
-      <c r="K2" t="s">
-        <v>27</v>
-      </c>
       <c r="M2" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="3" spans="1:19">
       <c r="D3" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="E3" s="10"/>
-      <c r="F3" s="8" t="s">
-        <v>11</v>
-      </c>
+      <c r="F3" s="8"/>
     </row>
     <row r="4" spans="1:19">
       <c r="E4" s="10" t="s">
-        <v>9</v>
-      </c>
-      <c r="F4" s="8" t="s">
-        <v>7</v>
-      </c>
+        <v>8</v>
+      </c>
+      <c r="F4" s="8"/>
       <c r="I4" t="s">
+        <v>18</v>
+      </c>
+      <c r="J4" t="s">
         <v>20</v>
-      </c>
-      <c r="J4" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="5" spans="1:19">
@@ -694,40 +684,40 @@
         <v>6</v>
       </c>
       <c r="I5" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="M5" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="O5" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="6" spans="1:19">
       <c r="D6" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="E6" s="10"/>
       <c r="F6" s="8" t="s">
         <v>5</v>
       </c>
       <c r="I6" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="M6" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="7" spans="1:19">
       <c r="E7" s="10"/>
       <c r="F7" s="8" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="M7" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="S7" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="8" spans="1:19">
@@ -736,13 +726,13 @@
         <v>4</v>
       </c>
       <c r="J8" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="K8" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="S8" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="9" spans="1:19">
@@ -750,13 +740,13 @@
         <v>2</v>
       </c>
       <c r="E9" s="10" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="F9" s="8" t="s">
         <v>3</v>
       </c>
       <c r="K9" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="10" spans="1:19">
@@ -769,19 +759,19 @@
         <v>1</v>
       </c>
       <c r="E10" s="11" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="F10" s="9"/>
       <c r="G10" s="1"/>
       <c r="H10" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="I10" s="1"/>
       <c r="J10" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="K10" s="1" t="s">
         <v>21</v>
-      </c>
-      <c r="K10" s="1" t="s">
-        <v>23</v>
       </c>
       <c r="L10" s="1"/>
       <c r="M10" s="1"/>
@@ -868,7 +858,7 @@
       <c r="N12" s="7"/>
       <c r="O12" s="7"/>
       <c r="P12" s="7" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="Q12" s="7"/>
       <c r="R12" s="7"/>
@@ -876,39 +866,39 @@
     </row>
     <row r="14" spans="1:19">
       <c r="L14" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="15" spans="1:19">
       <c r="B15" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="P15" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="17" spans="1:19">
       <c r="N17" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="O17" s="8" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="18" spans="1:19">
       <c r="J18" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="20" spans="1:19">
       <c r="K20" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="N20" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="Q20" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="21" spans="1:19">
@@ -923,7 +913,7 @@
       <c r="I21" s="1"/>
       <c r="J21" s="1"/>
       <c r="K21" s="1" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="L21" s="1"/>
       <c r="M21" s="1"/>

--- a/Трататаинский Timeline.xlsx
+++ b/Трататаинский Timeline.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="56">
   <si>
     <t>Приход 20 летнего Шайлате к власти</t>
   </si>
@@ -36,9 +36,6 @@
     <t>19 июня 305 взлет шароплана</t>
   </si>
   <si>
-    <t>21 июня 305 разгром армии Меме шаропланом</t>
-  </si>
-  <si>
     <t>298 основание культа братьев Манду Рореалом</t>
   </si>
   <si>
@@ -93,9 +90,6 @@
     <t>350 начало правления Фетесу, победившего Ромола</t>
   </si>
   <si>
-    <t>358 смерть Фетесу</t>
-  </si>
-  <si>
     <t>395 приказ Шуйдема строить форты на речках</t>
   </si>
   <si>
@@ -154,6 +148,42 @@
   </si>
   <si>
     <t>374 прибытие Трататаинце к Гарланам</t>
+  </si>
+  <si>
+    <t>358 смерть Фетесу, приход к власти Шуйры</t>
+  </si>
+  <si>
+    <t>384 смерть Шуйры, начало правления Шуйдема</t>
+  </si>
+  <si>
+    <t xml:space="preserve">427 смерть Шуйдема </t>
+  </si>
+  <si>
+    <t>21 июня 305 атака армии Меме шаропланом</t>
+  </si>
+  <si>
+    <t>322 капитуляция Меме из Трататании</t>
+  </si>
+  <si>
+    <t>319 попытка экспансии Момлян на юг</t>
+  </si>
+  <si>
+    <t>353 начало Северного Востания</t>
+  </si>
+  <si>
+    <t>27 сент. 353 битва у южных врат Карманду</t>
+  </si>
+  <si>
+    <t>29 авг. 355 штурм Тайдера, розгром Северо-Западной коалиции</t>
+  </si>
+  <si>
+    <t>362 проведение экспансии Ирлов на запад</t>
+  </si>
+  <si>
+    <t>362 начало правления капитана Грома у Ирлов</t>
+  </si>
+  <si>
+    <t>Битва при Сватогуде</t>
   </si>
 </sst>
 </file>
@@ -170,12 +200,48 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="11">
@@ -306,7 +372,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
@@ -316,9 +382,22 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -615,8 +694,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:S22"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="N1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="Q19" sqref="Q19"/>
+    <sheetView tabSelected="1" zoomScale="20" zoomScaleNormal="20" workbookViewId="0">
+      <selection activeCell="N10" sqref="N10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -625,161 +704,299 @@
     <col min="4" max="4" width="38.140625" customWidth="1"/>
     <col min="5" max="5" width="47" customWidth="1"/>
     <col min="6" max="6" width="58.28515625" customWidth="1"/>
-    <col min="8" max="8" width="15.28515625" customWidth="1"/>
+    <col min="7" max="7" width="35.42578125" customWidth="1"/>
+    <col min="8" max="8" width="34.42578125" customWidth="1"/>
     <col min="9" max="9" width="40.5703125" customWidth="1"/>
     <col min="10" max="10" width="50" customWidth="1"/>
     <col min="11" max="11" width="65.7109375" customWidth="1"/>
-    <col min="12" max="12" width="22.42578125" customWidth="1"/>
+    <col min="12" max="12" width="43.7109375" customWidth="1"/>
     <col min="13" max="13" width="59.85546875" customWidth="1"/>
-    <col min="14" max="14" width="39.5703125" customWidth="1"/>
+    <col min="14" max="14" width="44.42578125" customWidth="1"/>
     <col min="15" max="16" width="42.85546875" customWidth="1"/>
+    <col min="18" max="18" width="20" customWidth="1"/>
     <col min="19" max="19" width="68.85546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:19">
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
       <c r="E1" s="10"/>
-      <c r="F1" s="8" t="s">
+      <c r="F1" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="G1" s="16" t="s">
+        <v>49</v>
+      </c>
+      <c r="H1" s="16"/>
+      <c r="I1" s="18"/>
+      <c r="J1" s="18"/>
+      <c r="K1" s="21"/>
+      <c r="L1" s="21"/>
+      <c r="M1" s="21"/>
+      <c r="N1" s="23"/>
+      <c r="O1" s="23"/>
+      <c r="P1" s="23"/>
+      <c r="Q1" s="23"/>
+    </row>
+    <row r="2" spans="1:19">
+      <c r="B2" s="9"/>
+      <c r="C2" s="9"/>
+      <c r="D2" s="9"/>
+      <c r="E2" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="F2" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="G2" s="16"/>
+      <c r="H2" s="16"/>
+      <c r="I2" s="18" t="s">
+        <v>22</v>
+      </c>
+      <c r="J2" s="18"/>
+      <c r="K2" s="20" t="s">
+        <v>44</v>
+      </c>
+      <c r="L2" s="21"/>
+      <c r="M2" s="21" t="s">
+        <v>27</v>
+      </c>
+      <c r="N2" s="23"/>
+      <c r="O2" s="23"/>
+      <c r="P2" s="23"/>
+      <c r="Q2" s="23"/>
+    </row>
+    <row r="3" spans="1:19">
+      <c r="B3" s="9"/>
+      <c r="C3" s="9"/>
+      <c r="D3" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="E3" s="10"/>
+      <c r="F3" s="15"/>
+      <c r="G3" s="16"/>
+      <c r="H3" s="16"/>
+      <c r="I3" s="18"/>
+      <c r="J3" s="18"/>
+      <c r="K3" s="20"/>
+      <c r="L3" s="21"/>
+      <c r="M3" s="21"/>
+      <c r="N3" s="23"/>
+      <c r="O3" s="23"/>
+      <c r="P3" s="23"/>
+      <c r="Q3" s="23"/>
+      <c r="R3" s="23" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19">
+      <c r="B4" s="9"/>
+      <c r="C4" s="9"/>
+      <c r="D4" s="9"/>
+      <c r="E4" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="F4" s="15"/>
+      <c r="G4" s="16"/>
+      <c r="H4" s="16"/>
+      <c r="I4" s="18" t="s">
+        <v>17</v>
+      </c>
+      <c r="J4" s="18" t="s">
+        <v>19</v>
+      </c>
+      <c r="K4" s="20"/>
+      <c r="L4" s="21"/>
+      <c r="M4" s="21"/>
+      <c r="N4" s="23"/>
+      <c r="O4" s="23"/>
+      <c r="P4" s="23"/>
+      <c r="Q4" s="23"/>
+      <c r="R4" s="23"/>
+    </row>
+    <row r="5" spans="1:19">
+      <c r="B5" s="9"/>
+      <c r="C5" s="9"/>
+      <c r="D5" s="9"/>
+      <c r="E5" s="10"/>
+      <c r="F5" s="15" t="s">
+        <v>47</v>
+      </c>
+      <c r="G5" s="16"/>
+      <c r="H5" s="16"/>
+      <c r="I5" s="16" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="2" spans="1:19">
-      <c r="E2" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="F2" s="8" t="s">
+      <c r="J5" s="18"/>
+      <c r="K5" s="20" t="s">
+        <v>52</v>
+      </c>
+      <c r="L5" s="21"/>
+      <c r="M5" s="21" t="s">
+        <v>43</v>
+      </c>
+      <c r="N5" s="23"/>
+      <c r="O5" s="23" t="s">
+        <v>24</v>
+      </c>
+      <c r="P5" s="23"/>
+      <c r="Q5" s="23"/>
+      <c r="R5" s="23"/>
+    </row>
+    <row r="6" spans="1:19">
+      <c r="B6" s="9"/>
+      <c r="C6" s="9"/>
+      <c r="D6" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="I2" t="s">
+      <c r="E6" s="10"/>
+      <c r="F6" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="G6" s="16"/>
+      <c r="H6" s="16"/>
+      <c r="I6" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="J6" s="18"/>
+      <c r="K6" s="20" t="s">
+        <v>51</v>
+      </c>
+      <c r="L6" s="21"/>
+      <c r="M6" s="21" t="s">
+        <v>26</v>
+      </c>
+      <c r="N6" s="21" t="s">
+        <v>45</v>
+      </c>
+      <c r="O6" s="23"/>
+      <c r="P6" s="23"/>
+      <c r="Q6" s="23"/>
+      <c r="R6" s="23"/>
+    </row>
+    <row r="7" spans="1:19">
+      <c r="B7" s="9"/>
+      <c r="C7" s="9"/>
+      <c r="D7" s="9"/>
+      <c r="E7" s="10"/>
+      <c r="F7" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="G7" s="16"/>
+      <c r="H7" s="16"/>
+      <c r="I7" s="16"/>
+      <c r="J7" s="18"/>
+      <c r="K7" s="20" t="s">
+        <v>50</v>
+      </c>
+      <c r="L7" s="21"/>
+      <c r="M7" s="21" t="s">
+        <v>25</v>
+      </c>
+      <c r="N7" s="21"/>
+      <c r="O7" s="23"/>
+      <c r="P7" s="23"/>
+      <c r="Q7" s="23"/>
+      <c r="R7" s="23"/>
+      <c r="S7" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19">
+      <c r="B8" s="9"/>
+      <c r="C8" s="9"/>
+      <c r="D8" s="9"/>
+      <c r="E8" s="10"/>
+      <c r="F8" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="G8" s="16"/>
+      <c r="H8" s="16" t="s">
+        <v>48</v>
+      </c>
+      <c r="I8" s="16"/>
+      <c r="J8" s="18" t="s">
+        <v>42</v>
+      </c>
+      <c r="K8" s="20" t="s">
         <v>23</v>
       </c>
-      <c r="K2" t="s">
-        <v>25</v>
-      </c>
-      <c r="M2" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="3" spans="1:19">
-      <c r="D3" t="s">
+      <c r="L8" s="21" t="s">
+        <v>53</v>
+      </c>
+      <c r="M8" s="21"/>
+      <c r="N8" s="21"/>
+      <c r="O8" s="23"/>
+      <c r="P8" s="23"/>
+      <c r="Q8" s="23"/>
+      <c r="R8" s="23"/>
+      <c r="S8" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19">
+      <c r="B9" s="9"/>
+      <c r="C9" s="9"/>
+      <c r="D9" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="E9" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="E3" s="10"/>
-      <c r="F3" s="8"/>
-    </row>
-    <row r="4" spans="1:19">
-      <c r="E4" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="F4" s="8"/>
-      <c r="I4" t="s">
-        <v>18</v>
-      </c>
-      <c r="J4" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="5" spans="1:19">
-      <c r="E5" s="10"/>
-      <c r="F5" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="I5" t="s">
-        <v>17</v>
-      </c>
-      <c r="M5" t="s">
-        <v>45</v>
-      </c>
-      <c r="O5" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="6" spans="1:19">
-      <c r="D6" t="s">
-        <v>10</v>
-      </c>
-      <c r="E6" s="10"/>
-      <c r="F6" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="I6" t="s">
-        <v>14</v>
-      </c>
-      <c r="M6" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="7" spans="1:19">
-      <c r="E7" s="10"/>
-      <c r="F7" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="M7" t="s">
-        <v>27</v>
-      </c>
-      <c r="S7" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="8" spans="1:19">
-      <c r="E8" s="10"/>
-      <c r="F8" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="J8" t="s">
-        <v>44</v>
-      </c>
-      <c r="K8" t="s">
-        <v>24</v>
-      </c>
-      <c r="S8" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="9" spans="1:19">
-      <c r="D9" t="s">
-        <v>2</v>
-      </c>
-      <c r="E9" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="F9" s="8" t="s">
+      <c r="F9" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="K9" t="s">
-        <v>22</v>
-      </c>
+      <c r="G9" s="16"/>
+      <c r="H9" s="16"/>
+      <c r="I9" s="16"/>
+      <c r="J9" s="18"/>
+      <c r="K9" s="18" t="s">
+        <v>21</v>
+      </c>
+      <c r="L9" s="21" t="s">
+        <v>54</v>
+      </c>
+      <c r="M9" s="21"/>
+      <c r="N9" s="21"/>
+      <c r="O9" s="23"/>
+      <c r="P9" s="23"/>
+      <c r="Q9" s="23"/>
+      <c r="R9" s="23"/>
     </row>
     <row r="10" spans="1:19">
       <c r="A10" s="1"/>
-      <c r="B10" s="1" t="s">
+      <c r="B10" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="C10" s="1"/>
-      <c r="D10" s="1" t="s">
+      <c r="C10" s="11"/>
+      <c r="D10" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="E10" s="11" t="s">
-        <v>43</v>
-      </c>
-      <c r="F10" s="9"/>
-      <c r="G10" s="1"/>
-      <c r="H10" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="I10" s="1"/>
-      <c r="J10" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="K10" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="L10" s="1"/>
-      <c r="M10" s="1"/>
-      <c r="N10" s="1"/>
-      <c r="O10" s="1"/>
-      <c r="P10" s="1"/>
-      <c r="Q10" s="1"/>
-      <c r="R10" s="1"/>
+      <c r="E10" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="F10" s="14"/>
+      <c r="G10" s="17"/>
+      <c r="H10" s="17" t="s">
+        <v>14</v>
+      </c>
+      <c r="I10" s="17"/>
+      <c r="J10" s="19" t="s">
+        <v>18</v>
+      </c>
+      <c r="K10" s="19" t="s">
+        <v>20</v>
+      </c>
+      <c r="L10" s="22"/>
+      <c r="M10" s="22"/>
+      <c r="N10" s="22" t="s">
+        <v>55</v>
+      </c>
+      <c r="O10" s="24"/>
+      <c r="P10" s="24"/>
+      <c r="Q10" s="24"/>
+      <c r="R10" s="24"/>
       <c r="S10" s="1"/>
     </row>
     <row r="11" spans="1:19">
@@ -858,7 +1075,7 @@
       <c r="N12" s="7"/>
       <c r="O12" s="7"/>
       <c r="P12" s="7" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="Q12" s="7"/>
       <c r="R12" s="7"/>
@@ -866,39 +1083,39 @@
     </row>
     <row r="14" spans="1:19">
       <c r="L14" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="15" spans="1:19">
       <c r="B15" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="P15" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="17" spans="1:19">
       <c r="N17" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="O17" s="8" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="18" spans="1:19">
       <c r="J18" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="20" spans="1:19">
       <c r="K20" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="N20" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="Q20" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="21" spans="1:19">
@@ -913,7 +1130,7 @@
       <c r="I21" s="1"/>
       <c r="J21" s="1"/>
       <c r="K21" s="1" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="L21" s="1"/>
       <c r="M21" s="1"/>
